--- a/ELG4913 BOM.xlsx
+++ b/ELG4913 BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greyg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GMCH\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75C8A67-0F2A-49C4-82D8-5E3547EAD988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE7CDD9-775D-49D1-A191-89CDF187A3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D39A89DB-22D1-4CC9-936A-ED886566BF58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D39A89DB-22D1-4CC9-936A-ED886566BF58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ELG4913 BOM</t>
   </si>
@@ -68,15 +68,9 @@
     <t>https://www.aliexpress.com/item/1005005275736468.html?spm=a2g0o.productlist.main.1.3a1072cewm2hWM&amp;algo_pvid=b268c8e1-af98-4201-8858-09cd4e6887e0&amp;algo_exp_id=b268c8e1-af98-4201-8858-09cd4e6887e0-0&amp;pdp_npi=4%40dis%21CAD%2173.14%2171.68%21%21%2152.61%2151.56%21%40210307bf17265994460883461ec49b%2112000038407879035%21sea%21CA%210%21ABX&amp;curPageLogUid=dF82d1Pl71AG&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
   </si>
   <si>
-    <t>https://www.pishop.ca/product/mlx90640-thermal-camera-breakout-wide-angle/</t>
-  </si>
-  <si>
     <t>MLX90640 Thermal Camera Breakout - Wide Angle</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/PrimeCables-550MHz-Ethernet-Copper-Network/dp/B00H4O6IME/ref=sr_1_9?dib=eyJ2IjoiMSJ9.XcDYd-kLRvKFIX-X1VJTtW3GFvx8he748TcX6fsPJmWmdRTltMP1djluy6y7MTFwlPVOIMsv5go4YPTI2wmbCVLi8SNJog9XnDrWPSmKd7iuImW-Cgy3WwEV6tTfyzeLpkNIYgDQ6bz3JzlP8ypOcRjruQws9E3r8YyJ_1hAs71OnV0aOb_UuvRlkvMK7WKCdZBjlWWm4dXdlDqFEk-NxCJLo5PQrpvPDE2jBitxfzQgN2zkKl4BWiXhv7WaGtv32vkLVB_CvMwCDn056rsKwsvJo7L-EWgd7PMEEmcwbSI.Cw6_SqlWuhzzg1oZMW27_6sQHgQvhLVPkfemIWx3sfk&amp;dib_tag=se&amp;hvadid=671287084725&amp;hvdev=c&amp;hvlocphy=9000662&amp;hvnetw=g&amp;hvqmt=e&amp;hvrand=3111975428468076152&amp;hvtargid=kwd-322008299434&amp;hydadcr=1528_13637746&amp;keywords=100ft+ethernet+cable&amp;qid=1726600970&amp;sr=8-9</t>
-  </si>
-  <si>
     <t>Voltage Regulator 7.4V-5V</t>
   </si>
   <si>
@@ -84,6 +78,30 @@
   </si>
   <si>
     <t>Things to ask about:</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/product/B0BXWJFCVJ/ref=ox_sc_act_title_2?smid=A1XEC9TMFJSNSW&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Per person</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Ethernet-Higher-Bandwidth-Internet-Network/dp/B017P34W6C/ref=sr_1_5?crid=2UEA4J2GFAALW&amp;dib=eyJ2IjoiMSJ9.XcDYd-kLRvKFIX-X1VJTtW3GFvx8he748TcX6fsPJmWtuwR9pf-4hz9_LugBUMfHQ4QrpkUJhKPcq9Oh8XAd6Mfv5uS-zGj7f-Dn5G9lnedaomx2WezBxwMFXgEDohA9hXs9rWHY5sP6rwzSGwTXVdMopK-SpBzaNGm2LsnhGS45dK1TBsd6kWi4pqm86bC3lj05sSNQaOYEapFXo6lR3hlSxWYQ4fGUobp05n2GcA2n4y4QaVhLrkj4Vyydlptk3NovA-UjLubbjSF-rolckk7xZ-DQMyNpDZbWPprUHqQ.KOOQIVYrd1Bd43431-r4OP3yD9vFSjODHJY8-IOfeWk&amp;dib_tag=se&amp;keywords=ethernet+cable+100ft&amp;qid=1726690261&amp;sprefix=ethernet+cable+100ft%2Caps%2C105&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Pimoroni/PIM366?qs=lc2O%252BfHJPVbvcWNSB8Ff5Q%3D%3D</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Per person:</t>
   </si>
 </sst>
 </file>
@@ -139,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -147,6 +165,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -482,26 +503,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDC054E-F554-4C27-A903-E21BBA7B3312}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -512,82 +533,137 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>23.99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <f>D4</f>
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
+        <f>D6/5</f>
+        <v>4.798</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
-        <v>87.68</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D17" s="3">
+        <v>87.78</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3">
-        <v>84.95</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3">
+        <v>14.69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>25.88</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3">
-        <v>20.32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2.69</v>
+      <c r="D19" s="3">
+        <v>113.88</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
+        <f>D17+D18+D19</f>
+        <v>216.35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3">
+        <f>D20/5</f>
+        <v>43.269999999999996</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="https://www.aliexpress.com/item/1005005275736468.html?spm=a2g0o.productlist.main.1.3a1072cewm2hWM&amp;algo_pvid=b268c8e1-af98-4201-8858-09cd4e6887e0&amp;algo_exp_id=b268c8e1-af98-4201-8858-09cd4e6887e0-0&amp;pdp_npi=4%40dis%21CAD%2173.14%2171.68%21%21%2152.61%2151.56%21%40210307bf17265994460883461ec49b%2112000038407879035%21sea%21CA%210%21ABX&amp;curPageLogUid=dF82d1Pl71AG&amp;utparam-url=scene%3Asearch%7Cquery_from%3A" xr:uid="{1B05D450-6C78-4929-839F-EF946A7FAE63}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{8D3B9DDE-F8B0-4737-9ED8-D26FD0C69164}"/>
+    <hyperlink ref="E17" r:id="rId1" display="https://www.aliexpress.com/item/1005005275736468.html?spm=a2g0o.productlist.main.1.3a1072cewm2hWM&amp;algo_pvid=b268c8e1-af98-4201-8858-09cd4e6887e0&amp;algo_exp_id=b268c8e1-af98-4201-8858-09cd4e6887e0-0&amp;pdp_npi=4%40dis%21CAD%2173.14%2171.68%21%21%2152.61%2151.56%21%40210307bf17265994460883461ec49b%2112000038407879035%21sea%21CA%210%21ABX&amp;curPageLogUid=dF82d1Pl71AG&amp;utparam-url=scene%3Asearch%7Cquery_from%3A" xr:uid="{5239CEAC-BB27-4B9D-815D-E64A4844063C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/ELG4913 BOM.xlsx
+++ b/ELG4913 BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GMCH\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE7CDD9-775D-49D1-A191-89CDF187A3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97032492-209C-4275-9E7F-BC22DA25A764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D39A89DB-22D1-4CC9-936A-ED886566BF58}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ELG4913 BOM</t>
   </si>
@@ -77,9 +77,6 @@
     <t>ADS1115 ADC 16-bit ADC</t>
   </si>
   <si>
-    <t>Things to ask about:</t>
-  </si>
-  <si>
     <t>https://www.amazon.ca/gp/product/B0BXWJFCVJ/ref=ox_sc_act_title_2?smid=A1XEC9TMFJSNSW&amp;psc=1</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Per person:</t>
+  </si>
+  <si>
+    <t>Received from University:</t>
   </si>
 </sst>
 </file>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDC054E-F554-4C27-A903-E21BBA7B3312}">
-  <dimension ref="B2:E21"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
         <v>23.99</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
         <f>D4</f>
@@ -563,7 +563,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
         <f>D6/5</f>
@@ -576,92 +576,85 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.1499999999999999</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>87.78</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="3">
+        <v>14.69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>113.88</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>87.78</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
       <c r="D18" s="3">
-        <v>14.69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>10</v>
+        <f>D15+D16+D17</f>
+        <v>216.35</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="3">
-        <v>113.88</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3">
-        <f>D17+D18+D19</f>
-        <v>216.35</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3">
-        <f>D20/5</f>
+        <f>D18/5</f>
         <v>43.269999999999996</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" display="https://www.aliexpress.com/item/1005005275736468.html?spm=a2g0o.productlist.main.1.3a1072cewm2hWM&amp;algo_pvid=b268c8e1-af98-4201-8858-09cd4e6887e0&amp;algo_exp_id=b268c8e1-af98-4201-8858-09cd4e6887e0-0&amp;pdp_npi=4%40dis%21CAD%2173.14%2171.68%21%21%2152.61%2151.56%21%40210307bf17265994460883461ec49b%2112000038407879035%21sea%21CA%210%21ABX&amp;curPageLogUid=dF82d1Pl71AG&amp;utparam-url=scene%3Asearch%7Cquery_from%3A" xr:uid="{5239CEAC-BB27-4B9D-815D-E64A4844063C}"/>
+    <hyperlink ref="E15" r:id="rId1" display="https://www.aliexpress.com/item/1005005275736468.html?spm=a2g0o.productlist.main.1.3a1072cewm2hWM&amp;algo_pvid=b268c8e1-af98-4201-8858-09cd4e6887e0&amp;algo_exp_id=b268c8e1-af98-4201-8858-09cd4e6887e0-0&amp;pdp_npi=4%40dis%21CAD%2173.14%2171.68%21%21%2152.61%2151.56%21%40210307bf17265994460883461ec49b%2112000038407879035%21sea%21CA%210%21ABX&amp;curPageLogUid=dF82d1Pl71AG&amp;utparam-url=scene%3Asearch%7Cquery_from%3A" xr:uid="{5239CEAC-BB27-4B9D-815D-E64A4844063C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
